--- a/report.xlsx
+++ b/report.xlsx
@@ -443,9 +443,9 @@
   <cols>
     <col width="5.071750341976081" customWidth="1" min="1" max="1"/>
     <col width="20.28700136790432" customWidth="1" min="2" max="2"/>
-    <col width="24.09081412438638" customWidth="1" min="3" max="3"/>
+    <col width="38.03812756482061" customWidth="1" min="3" max="3"/>
     <col width="24.09081412438638" customWidth="1" min="4" max="4"/>
-    <col width="27.89462688086844" customWidth="1" min="5" max="5"/>
+    <col width="41.84194032130267" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -461,7 +461,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Средняя зарплата - </t>
+          <t>Средняя зарплата - Программист</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -471,7 +471,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Количество вакансий - </t>
+          <t>Количество вакансий - Программист</t>
         </is>
       </c>
     </row>
@@ -485,13 +485,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>38916</v>
+        <v>43770</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2196</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
@@ -504,13 +504,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>43646</v>
+        <v>50412</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>17549</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="4">
@@ -523,13 +523,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>42492</v>
+        <v>46699</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>17709</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="5">
@@ -542,13 +542,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43846</v>
+        <v>50570</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>29093</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="6">
@@ -561,13 +561,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>47451</v>
+        <v>55770</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>36700</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="7">
@@ -580,13 +580,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>48243</v>
+        <v>57960</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44153</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>51510</v>
+        <v>58804</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>59954</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="9">
@@ -618,13 +618,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>50658</v>
+        <v>62384</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>66837</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="10">
@@ -637,13 +637,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>52696</v>
+        <v>62322</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>70039</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>62675</v>
+        <v>66817</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>75145</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="12">
@@ -675,13 +675,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>60935</v>
+        <v>72460</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>82823</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="13">
@@ -694,13 +694,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>58335</v>
+        <v>76879</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>131701</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="14">
@@ -713,13 +713,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>69467</v>
+        <v>85300</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>115086</v>
+        <v>9016</v>
       </c>
     </row>
     <row r="15">
@@ -732,13 +732,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>73431</v>
+        <v>89791</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>102243</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="16">
@@ -751,13 +751,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>82690</v>
+        <v>100987</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>57623</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="17">
@@ -770,13 +770,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>91795</v>
+        <v>116651</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>18294</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
